--- a/barchart-v2.xlsx
+++ b/barchart-v2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GOOGLE DRIVE\DATA\KULIAH S2\Mata Kuliah\Data Sains\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E28DC56-92BE-47E0-A5D5-1245E97DCFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999C9001-4048-4EA7-B30D-6561050D0556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="barchart-v2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>film</t>
   </si>
@@ -116,12 +118,60 @@
   </si>
   <si>
     <t>408M</t>
+  </si>
+  <si>
+    <t>group,Nitrogen,normal,stress</t>
+  </si>
+  <si>
+    <t>banana,12,1,13</t>
+  </si>
+  <si>
+    <t>poacee,6,6,33</t>
+  </si>
+  <si>
+    <t>sorgho,11,28,12</t>
+  </si>
+  <si>
+    <t>triticum,19,6,1</t>
+  </si>
+  <si>
+    <t>film,gross,domestic gross</t>
+  </si>
+  <si>
+    <t>Avatar,2.78B,760M</t>
+  </si>
+  <si>
+    <t>Titanic,2.18B,658M</t>
+  </si>
+  <si>
+    <t>Star Wars: The Force Awakens,2.06B,936M</t>
+  </si>
+  <si>
+    <t>Jurassic World ,1.67B,652M</t>
+  </si>
+  <si>
+    <t>The Avengers,1.51B,623M</t>
+  </si>
+  <si>
+    <t>Furious 7,1.51B,351M</t>
+  </si>
+  <si>
+    <t>Avengers: Age of Ultron,1.40B,459M</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Deathly Hallows - Part 2,1.34B,381M</t>
+  </si>
+  <si>
+    <t>Frozen,1.27B,400M</t>
+  </si>
+  <si>
+    <t>Iron Man 3,1.21B,408M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -955,10 +1005,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1086,4 +1138,115 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDBB950-E8A0-493B-8E23-A9B8596CC938}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B10B62-4F63-4AF9-B756-3B387F4E7CA2}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>